--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="3540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:K21"/>
+  <oleSize ref="A1:H15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,9 +65,6 @@
     <t>Sakshi</t>
   </si>
   <si>
-    <t>Companyadmin@avantis.info</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>nitinpunit@gmail.com</t>
+  </si>
+  <si>
+    <t>companyadmin@avantis.info</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -460,7 +460,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -493,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="3540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H15"/>
+  <calcPr calcId="0" calcOnSave="0"/>
+  <oleSize ref="A12:I24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>URL</t>
   </si>
@@ -38,18 +41,12 @@
     <t>admin@123</t>
   </si>
   <si>
-    <t>User Details</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Patil</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -62,22 +59,82 @@
     <t>Contact No</t>
   </si>
   <si>
-    <t>Sakshi</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
-    <t>Nitin</t>
-  </si>
-  <si>
-    <t>pinit</t>
-  </si>
-  <si>
-    <t>nitinpunit@gmail.com</t>
-  </si>
-  <si>
     <t>companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>rahul.chopade@tlregtech.in</t>
+  </si>
+  <si>
+    <t>mgmt@avantis.info</t>
+  </si>
+  <si>
+    <t>Add License</t>
+  </si>
+  <si>
+    <t>License No.</t>
+  </si>
+  <si>
+    <t>Application Days</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>File No.</t>
+  </si>
+  <si>
+    <t>File Physical Location</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>LicenseTitle</t>
+  </si>
+  <si>
+    <t>Cost 234</t>
+  </si>
+  <si>
+    <t>File No.12</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx?ReturnUrl=%2fDIYProduction%2fLogoutSuccessfully.aspx</t>
+  </si>
+  <si>
+    <t>implementation.avantis@gmail.com</t>
+  </si>
+  <si>
+    <t>No.3 test for imp</t>
+  </si>
+  <si>
+    <t>reviewer@avantis.info</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
+  </si>
+  <si>
+    <t>test For imp-13</t>
+  </si>
+  <si>
+    <t>test for imp ee</t>
+  </si>
+  <si>
+    <t>Automate Remark wwqw</t>
+  </si>
+  <si>
+    <t>varad</t>
+  </si>
+  <si>
+    <t>patil</t>
+  </si>
+  <si>
+    <t>varadpatil32@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +482,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -460,45 +517,45 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>7865456765</v>
@@ -526,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,29 +595,240 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2"/>
     <row r="5" spans="1:2"/>
     <row r="6" spans="1:2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="2655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
-  <oleSize ref="A12:I24"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>URL</t>
   </si>
@@ -113,9 +113,6 @@
     <t>No.3 test for imp</t>
   </si>
   <si>
-    <t>reviewer@avantis.info</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
   </si>
   <si>
@@ -135,6 +132,12 @@
   </si>
   <si>
     <t>varadpatil32@gmail.com</t>
+  </si>
+  <si>
+    <t>bhagyesh@abcd.com</t>
+  </si>
+  <si>
+    <t>Avantis@123</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -526,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -534,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -550,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -678,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -686,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -726,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -812,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -820,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="2655" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="5130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A1:H15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>URL</t>
   </si>
@@ -77,54 +77,18 @@
     <t>License No.</t>
   </si>
   <si>
-    <t>Application Days</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>File No.</t>
-  </si>
-  <si>
-    <t>File Physical Location</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>LicenseTitle</t>
   </si>
   <si>
-    <t>Cost 234</t>
-  </si>
-  <si>
-    <t>File No.12</t>
-  </si>
-  <si>
     <t>https://test.avantisregtec.in/DIYProduction/Login.aspx?ReturnUrl=%2fDIYProduction%2fLogoutSuccessfully.aspx</t>
   </si>
   <si>
     <t>implementation.avantis@gmail.com</t>
   </si>
   <si>
-    <t>No.3 test for imp</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
   </si>
   <si>
-    <t>test For imp-13</t>
-  </si>
-  <si>
-    <t>test for imp ee</t>
-  </si>
-  <si>
-    <t>Automate Remark wwqw</t>
-  </si>
-  <si>
     <t>varad</t>
   </si>
   <si>
@@ -138,6 +102,9 @@
   </si>
   <si>
     <t>Avantis@123</t>
+  </si>
+  <si>
+    <t>pack -2</t>
   </si>
 </sst>
 </file>
@@ -484,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -537,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -553,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -637,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,10 +645,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -689,49 +656,14 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" customFormat="1"/>
+    <row r="10" spans="1:2" customFormat="1"/>
+    <row r="11" spans="1:2" customFormat="1"/>
+    <row r="12" spans="1:2" customFormat="1"/>
+    <row r="13" spans="1:2" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
@@ -760,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -768,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -793,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -815,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -823,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="5130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="5130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H15"/>
+  <oleSize ref="A1:G15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,9 +65,6 @@
     <t>companyadmin@avantis.info</t>
   </si>
   <si>
-    <t>rahul.chopade@tlregtech.in</t>
-  </si>
-  <si>
     <t>mgmt@avantis.info</t>
   </si>
   <si>
@@ -104,7 +101,10 @@
     <t>Avantis@123</t>
   </si>
   <si>
-    <t>pack -2</t>
+    <t>rahul.chopade11@tlregtech.in</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -554,7 +554,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -605,7 +605,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -640,12 +640,12 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="5130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="3300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <oleSize ref="A1:G15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>URL</t>
   </si>
@@ -104,7 +104,13 @@
     <t>rahul.chopade11@tlregtech.in</t>
   </si>
   <si>
-    <t>aaaaa</t>
+    <t>admin@111</t>
+  </si>
+  <si>
+    <t>56tesww</t>
+  </si>
+  <si>
+    <t>test568 test</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -648,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -656,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="3300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11865" windowHeight="4425" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1:G15"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>rahul.chopade11@tlregtech.in</t>
-  </si>
-  <si>
-    <t>admin@111</t>
   </si>
   <si>
     <t>56tesww</t>
@@ -611,7 +608,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -654,7 +651,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -662,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" customFormat="1"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11865" windowHeight="4425" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="4980" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F12"/>
+  <oleSize ref="A1:F14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>URL</t>
   </si>
@@ -62,15 +62,6 @@
     <t>Master</t>
   </si>
   <si>
-    <t>companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>mgmt@avantis.info</t>
-  </si>
-  <si>
-    <t>Add License</t>
-  </si>
-  <si>
     <t>License No.</t>
   </si>
   <si>
@@ -86,28 +77,40 @@
     <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
   </si>
   <si>
-    <t>varad</t>
-  </si>
-  <si>
-    <t>patil</t>
-  </si>
-  <si>
-    <t>varadpatil32@gmail.com</t>
-  </si>
-  <si>
-    <t>bhagyesh@abcd.com</t>
-  </si>
-  <si>
-    <t>Avantis@123</t>
-  </si>
-  <si>
-    <t>rahul.chopade11@tlregtech.in</t>
-  </si>
-  <si>
-    <t>56tesww</t>
-  </si>
-  <si>
-    <t>test568 test</t>
+    <t>Add License 78</t>
+  </si>
+  <si>
+    <t>Teamwork@123$</t>
+  </si>
+  <si>
+    <t>deepalidev1973@gmail.com</t>
+  </si>
+  <si>
+    <t>deepali@tlregtech.in</t>
+  </si>
+  <si>
+    <t>shital.bhoyar@tlregtech.in</t>
+  </si>
+  <si>
+    <t>jadhavdeepa1804@gmail.com</t>
+  </si>
+  <si>
+    <t>admin#123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application  License </t>
+  </si>
+  <si>
+    <t>Aplication Overview</t>
+  </si>
+  <si>
+    <t>Kurane</t>
+  </si>
+  <si>
+    <t>Nitesh</t>
+  </si>
+  <si>
+    <t>nitesh34@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -452,9 +455,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -485,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -499,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -507,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -523,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -531,21 +534,15 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>7865456765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2"/>
-    <row r="25" spans="1:2"/>
-    <row r="26" spans="1:2"/>
-    <row r="27" spans="1:2"/>
-    <row r="28" spans="1:2"/>
-    <row r="29" spans="1:2"/>
+        <v>8954784845</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
@@ -554,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -587,17 +584,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2"/>
-    <row r="5" spans="1:2"/>
-    <row r="6" spans="1:2"/>
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId3" display="Tlregtech@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -605,10 +599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,35 +632,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" customFormat="1"/>
-    <row r="10" spans="1:2" customFormat="1"/>
-    <row r="11" spans="1:2" customFormat="1"/>
-    <row r="12" spans="1:2" customFormat="1"/>
-    <row r="13" spans="1:2" customFormat="1"/>
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
@@ -695,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -703,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -729,7 +718,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -750,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -758,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12360" windowHeight="4980" tabRatio="526"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="8115" tabRatio="526" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F14"/>
+  <oleSize ref="A1:J25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +50,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -80,37 +77,40 @@
     <t>Add License 78</t>
   </si>
   <si>
-    <t>Teamwork@123$</t>
-  </si>
-  <si>
-    <t>deepalidev1973@gmail.com</t>
-  </si>
-  <si>
-    <t>deepali@tlregtech.in</t>
-  </si>
-  <si>
-    <t>shital.bhoyar@tlregtech.in</t>
-  </si>
-  <si>
-    <t>jadhavdeepa1804@gmail.com</t>
-  </si>
-  <si>
-    <t>admin#123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application  License </t>
-  </si>
-  <si>
-    <t>Aplication Overview</t>
-  </si>
-  <si>
-    <t>Kurane</t>
-  </si>
-  <si>
-    <t>Nitesh</t>
-  </si>
-  <si>
-    <t>nitesh34@gmail.com</t>
+    <t>deepali11@tlregtech.in</t>
+  </si>
+  <si>
+    <t>snehal.patil333@tlregtech.in</t>
+  </si>
+  <si>
+    <t>shital.bhoyar11@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>jadhavdeepaww1804@gmail.com</t>
+  </si>
+  <si>
+    <t>Avantis@123</t>
+  </si>
+  <si>
+    <t>Team@1234</t>
+  </si>
+  <si>
+    <t>Radhe</t>
+  </si>
+  <si>
+    <t>Rake</t>
+  </si>
+  <si>
+    <t>r223akesh67@gmail</t>
+  </si>
+  <si>
+    <t>Tric12k -123</t>
+  </si>
+  <si>
+    <t>Trick  t23esting License</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -488,12 +488,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -518,23 +518,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>8954784845</v>
+        <v>7845121415</v>
       </c>
     </row>
   </sheetData>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -584,14 +584,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3" display="Tlregtech@123"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -602,7 +602,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -632,28 +632,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="8115" tabRatio="526" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="8115" tabRatio="526" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J25"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>URL</t>
   </si>
@@ -74,43 +74,37 @@
     <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
   </si>
   <si>
-    <t>Add License 78</t>
-  </si>
-  <si>
-    <t>deepali11@tlregtech.in</t>
-  </si>
-  <si>
-    <t>snehal.patil333@tlregtech.in</t>
-  </si>
-  <si>
-    <t>shital.bhoyar11@tlregtech.in</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>jadhavdeepaww1804@gmail.com</t>
-  </si>
-  <si>
-    <t>Avantis@123</t>
-  </si>
-  <si>
-    <t>Team@1234</t>
-  </si>
-  <si>
-    <t>Radhe</t>
-  </si>
-  <si>
-    <t>Rake</t>
-  </si>
-  <si>
-    <t>r223akesh67@gmail</t>
-  </si>
-  <si>
-    <t>Tric12k -123</t>
-  </si>
-  <si>
-    <t>Trick  t23esting License</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>companyadmin@bharat.com</t>
+  </si>
+  <si>
+    <t>mgmt@bharat.com</t>
+  </si>
+  <si>
+    <t>performer@testbharat.com</t>
+  </si>
+  <si>
+    <t>reviewer@testbharat.com</t>
+  </si>
+  <si>
+    <t>Add License</t>
+  </si>
+  <si>
+    <t>Team@123</t>
+  </si>
+  <si>
+    <t>kivan</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>jivankumar34@gmail.com</t>
+  </si>
+  <si>
+    <t>471 license</t>
   </si>
 </sst>
 </file>
@@ -457,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -488,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -502,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -518,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -526,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -534,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>7845121415</v>
+        <v>8957484514</v>
       </c>
     </row>
   </sheetData>
@@ -553,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -601,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -632,12 +626,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -645,15 +642,15 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
+      <c r="B8" s="3">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="8115" tabRatio="526" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="8115" tabRatio="526" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -95,16 +96,19 @@
     <t>Team@123</t>
   </si>
   <si>
-    <t>kivan</t>
-  </si>
-  <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>jivankumar34@gmail.com</t>
-  </si>
-  <si>
-    <t>471 license</t>
+    <t>471 license1</t>
+  </si>
+  <si>
+    <t>Vedansh</t>
+  </si>
+  <si>
+    <t>Vedanshkumar34@gmail.com</t>
+  </si>
+  <si>
+    <t>deepalidevdss1973@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -452,7 +456,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -504,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -520,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>471</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -642,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -650,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>474</v>
+        <v>4741</v>
       </c>
     </row>
   </sheetData>
@@ -755,4 +759,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Deepali\LicenseManagement-main\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="8115" tabRatio="526" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="526" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>URL</t>
   </si>
@@ -109,6 +114,9 @@
   </si>
   <si>
     <t>deepalidevdss1973@gmail.com</t>
+  </si>
+  <si>
+    <t>adminsnehal@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -455,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -766,7 +774,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -806,4 +814,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="526" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13770" windowHeight="4335" tabRatio="526" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -86,9 +86,6 @@
     <t>companyadmin@bharat.com</t>
   </si>
   <si>
-    <t>mgmt@bharat.com</t>
-  </si>
-  <si>
     <t>performer@testbharat.com</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Add License</t>
   </si>
   <si>
-    <t>Team@123</t>
-  </si>
-  <si>
     <t>Kumar</t>
   </si>
   <si>
@@ -117,6 +111,9 @@
   </si>
   <si>
     <t>adminsnehal@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgmtbharat@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -508,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -516,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -532,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -560,7 +557,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -590,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +605,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -643,7 +640,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1471</v>
@@ -654,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -748,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -756,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -773,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -820,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -842,8 +839,8 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -858,6 +855,7 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13770" windowHeight="4335" tabRatio="526" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6855" tabRatio="526" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f</t>
-  </si>
-  <si>
     <t>admin@123</t>
   </si>
   <si>
@@ -77,43 +74,46 @@
     <t>implementation.avantis@gmail.com</t>
   </si>
   <si>
-    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>companyadmin@bharat.com</t>
-  </si>
-  <si>
-    <t>performer@testbharat.com</t>
-  </si>
-  <si>
-    <t>reviewer@testbharat.com</t>
-  </si>
-  <si>
     <t>Add License</t>
   </si>
   <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>471 license1</t>
-  </si>
-  <si>
     <t>Vedansh</t>
   </si>
   <si>
     <t>Vedanshkumar34@gmail.com</t>
   </si>
   <si>
-    <t>deepalidevdss1973@gmail.com</t>
-  </si>
-  <si>
-    <t>adminsnehal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgmtbharat@gmail.com </t>
+    <t>https://applicationtesting.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
+  </si>
+  <si>
+    <t>TP-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP- test License </t>
+  </si>
+  <si>
+    <t>deepali12@tlregtech.in</t>
+  </si>
+  <si>
+    <t>companyadmin@regtrack.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviewerregtrack56@gmail.com </t>
+  </si>
+  <si>
+    <t>snehal10.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>auditor@regtrack.com</t>
+  </si>
+  <si>
+    <t>department@regtrack.com</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -491,50 +491,50 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>8957484514</v>
@@ -542,10 +542,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
@@ -557,13 +557,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -587,14 +587,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -605,7 +605,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,38 +635,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1471</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>4741</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -800,14 +800,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -848,14 +848,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Deepali\LicenseManagement-main\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6855" tabRatio="526" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="7836" tabRatio="526" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>URL</t>
   </si>
@@ -68,9 +64,6 @@
     <t>LicenseTitle</t>
   </si>
   <si>
-    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx?ReturnUrl=%2fDIYProduction%2fLogoutSuccessfully.aspx</t>
-  </si>
-  <si>
     <t>implementation.avantis@gmail.com</t>
   </si>
   <si>
@@ -83,37 +76,43 @@
     <t>Kumar</t>
   </si>
   <si>
-    <t>Vedansh</t>
-  </si>
-  <si>
-    <t>Vedanshkumar34@gmail.com</t>
-  </si>
-  <si>
-    <t>https://applicationtesting.teamleaseregtech.com/Login.aspx?ReturnUrl=%2fLogoutSuccessfully.aspx</t>
-  </si>
-  <si>
-    <t>TP-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP- test License </t>
-  </si>
-  <si>
     <t>deepali12@tlregtech.in</t>
   </si>
   <si>
     <t>companyadmin@regtrack.com</t>
   </si>
   <si>
-    <t xml:space="preserve">reviewerregtrack56@gmail.com </t>
-  </si>
-  <si>
     <t>snehal10.patil@tlregtech.in</t>
   </si>
   <si>
     <t>auditor@regtrack.com</t>
   </si>
   <si>
-    <t>department@regtrack.com</t>
+    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f</t>
+  </si>
+  <si>
+    <t>avantis@123</t>
+  </si>
+  <si>
+    <t>bhagyesh345@tlregtech.com</t>
+  </si>
+  <si>
+    <t>reviewerregtrack@gmail.com</t>
+  </si>
+  <si>
+    <t>TP-237943</t>
+  </si>
+  <si>
+    <t>TP- test License 633</t>
+  </si>
+  <si>
+    <t>Licenser675632</t>
+  </si>
+  <si>
+    <t>Nitesh</t>
+  </si>
+  <si>
+    <t>nitesg34@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -461,13 +460,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -475,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -483,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -505,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -513,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -521,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -529,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -557,13 +556,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -571,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -579,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -605,13 +604,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -619,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -627,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -640,10 +639,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -651,15 +650,15 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>45</v>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -677,12 +676,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -690,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -698,54 +697,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -766,15 +718,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="64" customWidth="1"/>
   </cols>
@@ -784,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -792,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -818,13 +817,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -832,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -840,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -848,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deepali\LicenseManagement-main\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="7836" tabRatio="526" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="7836" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>URL</t>
   </si>
@@ -76,43 +80,46 @@
     <t>Kumar</t>
   </si>
   <si>
-    <t>deepali12@tlregtech.in</t>
-  </si>
-  <si>
     <t>companyadmin@regtrack.com</t>
   </si>
   <si>
-    <t>snehal10.patil@tlregtech.in</t>
-  </si>
-  <si>
     <t>auditor@regtrack.com</t>
   </si>
   <si>
     <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f</t>
   </si>
   <si>
-    <t>avantis@123</t>
-  </si>
-  <si>
     <t>bhagyesh345@tlregtech.com</t>
   </si>
   <si>
-    <t>reviewerregtrack@gmail.com</t>
-  </si>
-  <si>
-    <t>TP-237943</t>
-  </si>
-  <si>
-    <t>TP- test License 633</t>
-  </si>
-  <si>
-    <t>Licenser675632</t>
-  </si>
-  <si>
     <t>Nitesh</t>
   </si>
   <si>
     <t>nitesg34@gmail.com</t>
+  </si>
+  <si>
+    <t>deepali@tlregtech.in</t>
+  </si>
+  <si>
+    <t>TP-2379433</t>
+  </si>
+  <si>
+    <t>bhagyesh@tlregtech.com</t>
+  </si>
+  <si>
+    <t>TP- twest License 6333</t>
+  </si>
+  <si>
+    <t>Licwenser6756323</t>
+  </si>
+  <si>
+    <t>Avantis@123</t>
+  </si>
+  <si>
+    <t>snehal.patil78@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Avantis@111</t>
   </si>
 </sst>
 </file>
@@ -459,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -474,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -482,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -490,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -504,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -528,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -556,7 +563,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -570,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -578,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -592,8 +599,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,7 +611,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -618,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -626,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -642,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -663,9 +670,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -689,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -723,7 +730,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -736,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -744,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -752,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -769,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -783,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -791,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -799,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +824,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -831,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -839,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -847,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deepali\LicenseManagement-main\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="7836" tabRatio="526"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12012" windowHeight="4488" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,49 +73,49 @@
     <t>Add License</t>
   </si>
   <si>
+    <t>companyadmin@regtrack.com</t>
+  </si>
+  <si>
+    <t>auditor@regtrack.com</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f</t>
+  </si>
+  <si>
+    <t>deepali@tlregtech.in</t>
+  </si>
+  <si>
+    <t>snehal.patil@tlregtech.in</t>
+  </si>
+  <si>
+    <t>admin#123</t>
+  </si>
+  <si>
+    <t>Nitya</t>
+  </si>
+  <si>
     <t>Kumar</t>
   </si>
   <si>
-    <t>companyadmin@regtrack.com</t>
-  </si>
-  <si>
-    <t>auditor@regtrack.com</t>
-  </si>
-  <si>
-    <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f</t>
-  </si>
-  <si>
-    <t>bhagyesh345@tlregtech.com</t>
-  </si>
-  <si>
-    <t>Nitesh</t>
-  </si>
-  <si>
-    <t>nitesg34@gmail.com</t>
-  </si>
-  <si>
-    <t>deepali@tlregtech.in</t>
-  </si>
-  <si>
-    <t>TP-2379433</t>
-  </si>
-  <si>
-    <t>bhagyesh@tlregtech.com</t>
-  </si>
-  <si>
-    <t>TP- twest License 6333</t>
-  </si>
-  <si>
-    <t>Licwenser6756323</t>
-  </si>
-  <si>
-    <t>Avantis@123</t>
-  </si>
-  <si>
-    <t>snehal.patil78@tlregtech.in</t>
-  </si>
-  <si>
-    <t>Avantis@111</t>
+    <t>nityakumar45@gmail.com</t>
+  </si>
+  <si>
+    <t>deepalidev1973@gmail.com</t>
+  </si>
+  <si>
+    <t>CIN902q</t>
+  </si>
+  <si>
+    <t>CIN44432q</t>
+  </si>
+  <si>
+    <t>CIN122q</t>
+  </si>
+  <si>
+    <t>shital.bhoyar@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Team@123</t>
   </si>
 </sst>
 </file>
@@ -175,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -183,6 +179,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,7 +466,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -481,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -489,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -497,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -511,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -519,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -535,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -549,7 +548,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
     <hyperlink ref="B2" r:id="rId3"/>
     <hyperlink ref="B1" r:id="rId4"/>
   </hyperlinks>
@@ -563,7 +562,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -577,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -585,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -593,12 +592,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
@@ -611,7 +610,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -625,14 +624,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -641,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -649,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -657,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -665,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -730,7 +729,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -743,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -751,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +776,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -790,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -798,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -806,13 +805,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
     <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,7 +823,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -838,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -846,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -854,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deepali\LicenseManagement-main\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12012" windowHeight="4488" tabRatio="526"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="7836" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,7 +470,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Deepali\LicenseManagement-main\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="7836" tabRatio="526"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,7 +466,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E13"/>
+  <oleSize ref="A1:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>URL</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Team@123</t>
+  </si>
+  <si>
+    <t>avantis@111</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +565,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -729,7 +732,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -758,12 +761,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
@@ -776,7 +779,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -823,7 +826,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -853,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LicenseManagement-main\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -612,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -732,7 +736,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -825,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,10 +733,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -767,6 +767,9 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -829,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,27 +95,9 @@
     <t>admin#123</t>
   </si>
   <si>
-    <t>Nitya</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>nityakumar45@gmail.com</t>
-  </si>
-  <si>
     <t>deepalidev1973@gmail.com</t>
   </si>
   <si>
-    <t>CIN902q</t>
-  </si>
-  <si>
-    <t>CIN44432q</t>
-  </si>
-  <si>
-    <t>CIN122q</t>
-  </si>
-  <si>
     <t>shital.bhoyar@tlregtech.in</t>
   </si>
   <si>
@@ -123,6 +105,24 @@
   </si>
   <si>
     <t>avantis@111</t>
+  </si>
+  <si>
+    <t>Nityaqw</t>
+  </si>
+  <si>
+    <t>Kumar2</t>
+  </si>
+  <si>
+    <t>nityakwqumar45@gmail.com</t>
+  </si>
+  <si>
+    <t>CIN122q11</t>
+  </si>
+  <si>
+    <t>CIN44432q11</t>
+  </si>
+  <si>
+    <t>CIN902q11</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -655,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -671,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LicenseManagement-main\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:D21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -616,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -832,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6684" tabRatio="526" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D21"/>
+  <oleSize ref="A1:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,9 +76,6 @@
     <t>companyadmin@regtrack.com</t>
   </si>
   <si>
-    <t>auditor@regtrack.com</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>Team@123</t>
   </si>
   <si>
-    <t>avantis@111</t>
-  </si>
-  <si>
     <t>Nityaqw</t>
   </si>
   <si>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>CIN902q11</t>
+  </si>
+  <si>
+    <t>auditor1@regtrack.com</t>
+  </si>
+  <si>
+    <t>Team@1234</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -537,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -595,12 +595,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
@@ -613,7 +613,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +685,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
